--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_COA_CashFundProfile_Regression_01.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_COA_CashFundProfile_Regression_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA2DEE3-846C-4412-9975-B10D236A2D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0863A3-CD18-49B6-BC2F-21737A1EAC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{700E182A-B159-4886-9E6C-1C79495AA709}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>BusinessModule</t>
   </si>
@@ -84,13 +84,22 @@
     <t>Enter Detail</t>
   </si>
   <si>
-    <t>TC_SM_COA_CashFundProfile_DetailsPage</t>
-  </si>
-  <si>
     <t>TC_SM_COA_CashFundProfile_ListView</t>
   </si>
   <si>
     <t>Login_Logout</t>
+  </si>
+  <si>
+    <t>UserAgencySelection</t>
+  </si>
+  <si>
+    <t>Select User</t>
+  </si>
+  <si>
+    <t>TC_SM_COA_CashFundProfile_AddNewProfile</t>
+  </si>
+  <si>
+    <t>Logout</t>
   </si>
 </sst>
 </file>
@@ -487,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793D2F31-9FDE-492E-B924-B76931AB77A9}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,15 +552,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -560,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -568,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -580,18 +589,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -611,7 +620,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -623,12 +632,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -640,6 +649,26 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
         <v>1</v>
       </c>
     </row>

--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_COA_CashFundProfile_Regression_01.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_COA_CashFundProfile_Regression_01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0863A3-CD18-49B6-BC2F-21737A1EAC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE46B4-AA39-4EF0-A830-1B824F26301B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{700E182A-B159-4886-9E6C-1C79495AA709}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>BusinessModule</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Enter Detail</t>
   </si>
   <si>
-    <t>TC_SM_COA_CashFundProfile_ListView</t>
-  </si>
-  <si>
     <t>Login_Logout</t>
   </si>
   <si>
@@ -100,6 +97,51 @@
   </si>
   <si>
     <t>Logout</t>
+  </si>
+  <si>
+    <t>TC_SM_COA_ListView_D3</t>
+  </si>
+  <si>
+    <t>BackToList</t>
+  </si>
+  <si>
+    <t>Validate back to list</t>
+  </si>
+  <si>
+    <t>Edit Profile</t>
+  </si>
+  <si>
+    <t>LastProcDateVerify</t>
+  </si>
+  <si>
+    <t>Verify Last Proc date</t>
+  </si>
+  <si>
+    <t>Nav_NextProfile_and_AddNewProfile</t>
+  </si>
+  <si>
+    <t>Open next profile</t>
+  </si>
+  <si>
+    <t>Adding New Profile Via Details Page</t>
+  </si>
+  <si>
+    <t>Recalling Existing Profile</t>
+  </si>
+  <si>
+    <t>Recall_Confirm</t>
+  </si>
+  <si>
+    <t>Confirm Alert Box</t>
+  </si>
+  <si>
+    <t>Delete Profile</t>
+  </si>
+  <si>
+    <t>TC_SM_COA_CashFundProfile_EditProfile</t>
+  </si>
+  <si>
+    <t>TC_SM_COA_DeleteProfile</t>
   </si>
 </sst>
 </file>
@@ -496,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793D2F31-9FDE-492E-B924-B76931AB77A9}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,10 +599,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -612,12 +654,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -637,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -657,10 +699,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -669,6 +711,186 @@
         <v>1</v>
       </c>
       <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
         <v>1</v>
       </c>
     </row>

--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_COA_CashFundProfile_Regression_01.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_COA_CashFundProfile_Regression_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE46B4-AA39-4EF0-A830-1B824F26301B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7877133F-75C6-4A83-A550-BD0958C33216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{700E182A-B159-4886-9E6C-1C79495AA709}"/>
   </bookViews>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793D2F31-9FDE-492E-B924-B76931AB77A9}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
